--- a/biology/Botanique/Horloge_florale/Horloge_florale.xlsx
+++ b/biology/Botanique/Horloge_florale/Horloge_florale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XIXe siècle, les jardiniers exploitent la constance avec laquelle certaines fleurs s'ouvrent et se ferment lors de mouvements périodiques spontanés et à peu près à heure fixe, pour concevoir des horloges florales. Le choix de ces fleurs dont les corolles s'ouvrent de jour ou de nuit permettait d'établir ces arrangements. Les fleurs étaient disposées sur un massif gradué selon les heures où elles changeaient de conformation à l'image d'une horloge. 
 </t>
@@ -511,12 +523,49 @@
           <t>Précision de l'assemblage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs s'ouvrent ou se ferment en réponse à l'extension ou la concentration des tissus de la face interne des pétales. Ces mouvements sont décrits par les biologistes, qui parlent de nyctinastie, lorsque les mouvements de veille et de sommeil des plantes sont provoqués sous l'influence de la variation de lumière selon le rythme jour/nuit. Ils distinguent les nasties (mouvements), induits par des variations de température (thermonasties) de celles induites par des modifications d'éclairement et de luminosité (photonasties).   
-La technique d'horloge florale était peu précise, car les fleurs suivent non seulement leur propre horloge biologique, mais dépendent aussi de facteurs extérieurs, comme l'humidité, la température, la latitude qui affectent leur cycle propre[1],[2].
-Horloge florale de Linné
-Lors des observations du monde végétal de Carl Von Linné (1707-1778), il observe que les fleurs de certaines plantes s'ouvrent et se ferment à des moments déterminés de la journée, dans son ouvrage Philosophica Botanica (1751). De là naquit l'idée qu'il était possible de déduire une heure approximative à partir de l'observation du comportement de telle ou telle espèce florale[2]. En considérant un ensemble de fleurs choisies de façon adéquate, il était possible de constituer une horloge florale, ou horologium florae, selon la terminologie utilisée par Linné.
+La technique d'horloge florale était peu précise, car les fleurs suivent non seulement leur propre horloge biologique, mais dépendent aussi de facteurs extérieurs, comme l'humidité, la température, la latitude qui affectent leur cycle propre,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Horloge_florale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horloge_florale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Précision de l'assemblage</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Horloge florale de Linné</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors des observations du monde végétal de Carl Von Linné (1707-1778), il observe que les fleurs de certaines plantes s'ouvrent et se ferment à des moments déterminés de la journée, dans son ouvrage Philosophica Botanica (1751). De là naquit l'idée qu'il était possible de déduire une heure approximative à partir de l'observation du comportement de telle ou telle espèce florale. En considérant un ensemble de fleurs choisies de façon adéquate, il était possible de constituer une horloge florale, ou horologium florae, selon la terminologie utilisée par Linné.
 Créée en 1822, l'un de ces modèles, l'horloge florale de Linné associait vingt-quatre plantes, toutes en fleur à la même époque de l'année.
 4h00 (du matin) : la belle-de-nuit, Mirabilis jalapa
 6h00 à 12h00 : l'oenothère odorante, Oenothera odorata
@@ -536,8 +585,43 @@
 			Arancus dioicus - 12h00 à 18h00
 			Eschscholzia californica - 13h00
 			Chicorium intybus - 14h00 à 17h00
-Horloge de Flore
-Crée en 1905, l'horloge de Flore regroupait 24 essences[3] : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Horloge_florale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horloge_florale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Précision de l'assemblage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Horloge de Flore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crée en 1905, l'horloge de Flore regroupait 24 essences : 
 00h00 : Sainfoin
 01h00 : Œillet
 02h00 : Lys
@@ -566,31 +650,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Horloge_florale</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Horloge_florale</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Différence entre horloge florale et horloge fleurie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'horloge fleurie est une véritable horloge avec des aiguilles derrière laquelle sont disposées des fleurs. L'horloge florale marque l'heure avec les cycles d'alternance des fleurs.
 </t>
